--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="283">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,6 +1143,10 @@
   </si>
   <si>
     <t>50PUN6183</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4585,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4758,7 +4762,9 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6770,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="284">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1146,6 +1146,10 @@
   </si>
   <si>
     <t>sdfsdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4590,7 +4594,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4665,7 +4669,9 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕화면\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -4593,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5034,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5216,7 +5216,9 @@
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>122332</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -5034,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5910,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6101,7 +6101,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>123111111</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="285">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1150,6 +1150,10 @@
   </si>
   <si>
     <t>sdfds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형지숙 천재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5911,7 +5915,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6135,7 +6139,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕화면\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="289">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,16 +1145,28 @@
     <t>50PUN6183</t>
   </si>
   <si>
-    <t>sdfsdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>형지숙 천재</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손옥수</t>
+  </si>
+  <si>
+    <t>설치환경 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U</t>
+  </si>
+  <si>
+    <t>설치환경 미흡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오금화</t>
+  </si>
+  <si>
+    <t>POL43U</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,6 +1304,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4597,13 +4612,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -4632,19 +4647,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200859</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200978</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4673,9 +4708,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4772,9 +4805,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5914,7 +5945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6140,7 +6171,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F25" s="2"/>
     </row>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdel-cs1\Desktop\d\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4088D004-14CA-4A00-990E-F6B0514AF886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="2"/>
+    <workbookView xWindow="4740" yWindow="1230" windowWidth="20820" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="297">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,34 +1146,66 @@
     <t>50PUN6183</t>
   </si>
   <si>
-    <t>형지숙 천재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손옥수</t>
-  </si>
-  <si>
-    <t>설치환경 미기재</t>
+    <t>sdfsdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POL55U</t>
   </si>
   <si>
-    <t>설치환경 미흡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오금화</t>
-  </si>
-  <si>
-    <t>POL43U</t>
+    <t>김남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비    고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL56U</t>
+  </si>
+  <si>
+    <t>이재식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL65U</t>
+  </si>
+  <si>
+    <t>처리구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김중래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1401,6 +1434,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1436,6 +1486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1611,7 +1678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3515,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4609,16 +4676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -4647,39 +4714,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="15">
-        <v>43803</v>
-      </c>
-      <c r="D2" s="2">
-        <v>200859</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" s="15">
-        <v>43803</v>
-      </c>
-      <c r="D3" s="2">
-        <v>200978</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4708,7 +4755,9 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4805,7 +4854,9 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5066,24 +5117,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5097,405 +5148,505 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="G1" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D2" s="2">
+        <v>197747</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D3" s="2">
+        <v>199511</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D4" s="2">
+        <v>199716</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200151</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200400</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>122332</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5505,19 +5656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
@@ -5543,11 +5694,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D2" s="2">
+        <v>201178</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5942,16 +6103,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
@@ -5980,11 +6141,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6136,9 +6297,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>123111111</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6170,9 +6329,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6383,7 +6540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6820,7 +6977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdel-cs1\Desktop\d\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4088D004-14CA-4A00-990E-F6B0514AF886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="10530" activeTab="2"/>
+    <workbookView xWindow="4740" yWindow="1230" windowWidth="20820" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="297">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1147,12 +1148,64 @@
   <si>
     <t>sdfsdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U</t>
+  </si>
+  <si>
+    <t>김남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비    고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL56U</t>
+  </si>
+  <si>
+    <t>이재식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL65U</t>
+  </si>
+  <si>
+    <t>처리구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김중래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1239,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,6 +1337,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,6 +1434,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1413,6 +1486,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1588,7 +1678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3492,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4586,11 +4676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4665,7 +4755,9 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5025,24 +5117,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5056,403 +5148,505 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="G1" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D2" s="2">
+        <v>197747</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D3" s="2">
+        <v>199511</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D4" s="2">
+        <v>199716</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200151</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200400</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5462,19 +5656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
@@ -5500,11 +5694,21 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D2" s="2">
+        <v>201178</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5899,16 +6103,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
@@ -5937,11 +6141,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6336,7 +6540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6773,7 +6977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdel-cs1\Desktop\d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4088D004-14CA-4A00-990E-F6B0514AF886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1230" windowWidth="20820" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="1230" windowWidth="20820" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="300">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1146,14 +1145,6 @@
     <t>50PUN6183</t>
   </si>
   <si>
-    <t>sdfsdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설치 사진 없음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1200,12 +1191,29 @@
   </si>
   <si>
     <t>55PUN6103</t>
+  </si>
+  <si>
+    <t>설치환경 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손옥수</t>
+  </si>
+  <si>
+    <t>설치환경 미흡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오금화</t>
+  </si>
+  <si>
+    <t>POL43U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1434,23 +1442,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1486,23 +1477,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1678,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4676,11 +4650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4714,19 +4688,39 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200859</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200978</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4755,9 +4749,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4854,9 +4846,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -5117,10 +5107,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -5148,21 +5138,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="15">
         <v>43802</v>
@@ -5178,10 +5168,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="15">
         <v>43802</v>
@@ -5191,16 +5181,16 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="15">
         <v>43802</v>
@@ -5210,16 +5200,16 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="15">
         <v>43803</v>
@@ -5235,10 +5225,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" s="15">
         <v>43803</v>
@@ -5248,7 +5238,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -5656,7 +5646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5695,10 +5685,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="15">
         <v>43803</v>
@@ -5707,7 +5697,7 @@
         <v>201178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -6103,7 +6093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6540,7 +6530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6977,7 +6967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1F028-E177-4C7E-8F86-0E4E9D12CE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1230" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="4935" yWindow="150" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,20 @@
     <sheet name="제주" sheetId="10" r:id="rId7"/>
     <sheet name="통합" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="319">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1208,12 +1217,87 @@
   </si>
   <si>
     <t>POL43U</t>
+  </si>
+  <si>
+    <t>설치 사진 미흡.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이로 정창호 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽근식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최송악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한쪽 모서리 짤림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문지선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수 시리얼 메모2에 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문기용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 양쪽 모서리 짤림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70PUN6184</t>
+  </si>
+  <si>
+    <t>김창균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 번호 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유범신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 구매/시리얼번호 조치상세내용에 2개, 메모1과 2에 각각 1개씩 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1300,7 +1384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,6 +1432,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,6 +1529,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1477,6 +1581,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1652,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3556,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4650,10 +4771,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5107,11 +5228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5243,30 +5364,62 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43804</v>
+      </c>
+      <c r="D7" s="1">
+        <v>199104</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D8" s="2">
+        <v>199532</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D9" s="2">
+        <v>200884</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5646,11 +5799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5702,11 +5855,21 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6093,19 +6256,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
   </cols>
@@ -6131,67 +6294,157 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="16">
+        <v>43801</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200164</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43801</v>
+      </c>
+      <c r="D3" s="2">
+        <v>198460</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43801</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200397</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200733</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200913</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200926</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D8" s="2">
+        <v>201129</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D9" s="2">
+        <v>201220</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6530,7 +6783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6967,7 +7220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="301">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1208,6 +1208,9 @@
   </si>
   <si>
     <t>POL43U</t>
+  </si>
+  <si>
+    <t>이애순</t>
   </si>
 </sst>
 </file>
@@ -3560,7 +3563,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4654,12 +4657,12 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -4724,11 +4727,21 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D4" s="2">
+        <v>201019</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="300">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1208,9 +1208,6 @@
   </si>
   <si>
     <t>POL43U</t>
-  </si>
-  <si>
-    <t>이애순</t>
   </si>
 </sst>
 </file>
@@ -3563,7 +3560,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4657,12 +4654,12 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -4727,21 +4724,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="15">
-        <v>43804</v>
-      </c>
-      <c r="D4" s="2">
-        <v>201019</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -4657,7 +4657,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08E70E-593F-4F2F-B635-CDA2256E078F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1230" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="35685" yWindow="1830" windowWidth="20820" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="320">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1211,12 +1212,87 @@
   </si>
   <si>
     <t>이애순</t>
+  </si>
+  <si>
+    <t>문지선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수 시리얼 메모2에 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 미흡.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문기용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 양쪽 모서리 짤림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70PUN6184</t>
+  </si>
+  <si>
+    <t>김창균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 번호 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유범신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 구매/시리얼번호 조치상세내용에 2개, 메모1과 2에 각각 1개씩 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽근식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최송악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한쪽 모서리 짤림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이로 정창호 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1303,7 +1379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,6 +1427,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,6 +1524,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1480,6 +1576,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1655,7 +1768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3559,7 +3672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4653,10 +4766,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5120,11 +5233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5256,30 +5369,62 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43804</v>
+      </c>
+      <c r="D7" s="1">
+        <v>199104</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D8" s="2">
+        <v>199532</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D9" s="2">
+        <v>200884</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -5659,11 +5804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5715,11 +5860,21 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6106,11 +6261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6144,67 +6299,157 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="16">
+        <v>43801</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200164</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43801</v>
+      </c>
+      <c r="D3" s="2">
+        <v>198460</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43801</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200397</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200733</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200913</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200926</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D8" s="2">
+        <v>201129</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D9" s="2">
+        <v>201220</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6543,7 +6788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6980,7 +7225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08E70E-593F-4F2F-B635-CDA2256E078F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98EF83-C4C7-4AEB-B08A-A67AB9511303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35685" yWindow="1830" windowWidth="20820" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="332">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,6 +1286,51 @@
   </si>
   <si>
     <t>이로 정창호 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김오성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모서리 짤림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백인걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuwan pradeepa</t>
+  </si>
+  <si>
+    <t>55PUN6784</t>
+  </si>
+  <si>
+    <t>송호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75PUN7133</t>
+  </si>
+  <si>
+    <t>김연주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백종호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5237,7 +5282,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5428,84 +5473,176 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D10" s="2">
+        <v>195598</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D11" s="2">
+        <v>197533</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D12" s="2">
+        <v>199939</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D13" s="2">
+        <v>200449</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D14" s="2">
+        <v>200552</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D15" s="2">
+        <v>200537</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D16" s="2">
+        <v>200946</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D17" s="2">
+        <v>201358</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D18" s="2">
+        <v>201434</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -5807,7 +5944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -6264,7 +6401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98EF83-C4C7-4AEB-B08A-A67AB9511303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="346">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,13 +1330,59 @@
   </si>
   <si>
     <t>백종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 메모1이아닌2에도적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상오 과장님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신연옥</t>
+  </si>
+  <si>
+    <t>이미랑</t>
+  </si>
+  <si>
+    <t>원기영</t>
+  </si>
+  <si>
+    <t>정상사진 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)힐메디헬스케어</t>
+  </si>
+  <si>
+    <t>최훈배</t>
+  </si>
+  <si>
+    <t>58PUN6183</t>
+  </si>
+  <si>
+    <t>최승선</t>
+  </si>
+  <si>
+    <t>50PUN6102</t>
+  </si>
+  <si>
+    <t>김철호</t>
+  </si>
+  <si>
+    <t>곽기용</t>
+  </si>
+  <si>
+    <t>김태영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1569,23 +1614,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1621,23 +1649,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1813,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,11 +3728,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4811,11 +4822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4903,83 +4914,183 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200815</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D6" s="2">
+        <v>201119</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D7" s="2">
+        <v>201120</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D8" s="2">
+        <v>201124</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D9" s="2">
+        <v>201188</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D10" s="2">
+        <v>201342</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D11" s="2">
+        <v>201429</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D12" s="2">
+        <v>201584</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43806</v>
+      </c>
+      <c r="D13" s="2">
+        <v>201571</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43806</v>
+      </c>
+      <c r="D14" s="2">
+        <v>201613</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5278,7 +5389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5941,7 +6052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6398,10 +6509,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -6925,7 +7036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7362,7 +7473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="제주" sheetId="10" r:id="rId7"/>
     <sheet name="통합" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="401">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1376,6 +1376,226 @@
   </si>
   <si>
     <t>김태영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이창준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없음  - 구 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강주희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이춘부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없음 , 설치환경 미기재 - 구 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하정욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4대 설치했는데 화면 테스트 한사진 한대밖에 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜이엠씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 초첨 맞지 않음 - 구 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이형석 이사님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 설치했는데 화면 켜서 테스트 한 사진 없으며 설치환경도 미기재하였음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV 설치 환경 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심상만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오민환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설치환경 미기재 하였으며 사진도 한장만 올려 설치 사진 부족함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정직영부장님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 대 설치인데 화면 확인 어려움 1대만 명확함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검사항 기재 불충분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70PUN6184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검사항 자세히 적지 않고 미기재-방문점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치환경 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">남윤주 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 비스듬히 찍고 초첨 맞지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍경택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 모서리 안보이게 찍혀 확인 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정남재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 비스듬히 찍어 확인 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장승길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV 설치 사진 불충분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65PUN6784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 잘려서 확인어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서순녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50PUN6102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이강룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내역에 아무것도 적지 않음-메모2에 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼넘버 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권인호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65PUN6703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼넘버 미기재 - 방문점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1469,7 +1689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1519,6 +1739,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,11 +2054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3720,6 +3949,185 @@
         <v>281</v>
       </c>
     </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" s="14">
+        <v>43800</v>
+      </c>
+      <c r="D104">
+        <v>199595</v>
+      </c>
+      <c r="E104" t="s">
+        <v>76</v>
+      </c>
+      <c r="F104" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" s="14">
+        <v>43807</v>
+      </c>
+      <c r="D105">
+        <v>200004</v>
+      </c>
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="14">
+        <v>43800</v>
+      </c>
+      <c r="D106">
+        <v>200135</v>
+      </c>
+      <c r="E106" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>347</v>
+      </c>
+      <c r="B107" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="14">
+        <v>43800</v>
+      </c>
+      <c r="D107">
+        <v>200111</v>
+      </c>
+      <c r="E107" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" s="14">
+        <v>43804</v>
+      </c>
+      <c r="D108">
+        <v>200109</v>
+      </c>
+      <c r="E108" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="14">
+        <v>43803</v>
+      </c>
+      <c r="D109">
+        <v>200249</v>
+      </c>
+      <c r="E109" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" t="s">
+        <v>360</v>
+      </c>
+      <c r="C110" s="14">
+        <v>43801</v>
+      </c>
+      <c r="D110">
+        <v>200369</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" t="s">
+        <v>363</v>
+      </c>
+      <c r="C111" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D111">
+        <v>200675</v>
+      </c>
+      <c r="E111" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>365</v>
+      </c>
+      <c r="C112" s="14">
+        <v>43801</v>
+      </c>
+      <c r="D112">
+        <v>200762</v>
+      </c>
+      <c r="E112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3729,10 +4137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4814,6 +5222,282 @@
         <v>166</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>368</v>
+      </c>
+      <c r="C60" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D60" s="18">
+        <v>198261</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D61" s="18">
+        <v>193117</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B62" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D62" s="18">
+        <v>199219</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D63" s="18">
+        <v>199343</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>380</v>
+      </c>
+      <c r="C64" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D64" s="18">
+        <v>199994</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D65" s="18">
+        <v>200381</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" s="9">
+        <v>43803</v>
+      </c>
+      <c r="D66" s="18">
+        <v>200395</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C67" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D67" s="18">
+        <v>200403</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>388</v>
+      </c>
+      <c r="C68" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D68" s="18">
+        <v>200579</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>389</v>
+      </c>
+      <c r="C69" s="9">
+        <v>43801</v>
+      </c>
+      <c r="D69" s="18">
+        <v>200693</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>390</v>
+      </c>
+      <c r="C70" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D70" s="18">
+        <v>200818</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="F70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>393</v>
+      </c>
+      <c r="C71" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D71" s="18">
+        <v>201033</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
+        <v>395</v>
+      </c>
+      <c r="C72" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D72" s="18">
+        <v>2021238</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B73" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D73" s="18">
+        <v>177769</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F73" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4825,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -4139,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
@@ -5509,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5780,7 +5780,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB523C0-3E9F-4766-913C-06FBA6BC0C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="990" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="4245" yWindow="615" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="405">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1596,13 +1597,29 @@
   </si>
   <si>
     <t>씨리얼넘버 미기재 - 방문점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여문기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모서리 짤림, 테스트 영상 없음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1843,6 +1860,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1878,6 +1912,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2053,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4136,7 +4187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5506,10 +5557,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6073,11 +6124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6441,22 +6492,44 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43809</v>
+      </c>
+      <c r="D19" s="2">
+        <v>200204</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43809</v>
+      </c>
+      <c r="D20" s="2">
+        <v>201437</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -6736,11 +6809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6810,11 +6883,21 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D4" s="2">
+        <v>201297</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7193,10 +7276,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -7720,7 +7803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8157,7 +8240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB523C0-3E9F-4766-913C-06FBA6BC0C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="615" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="615" windowWidth="20820" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="415">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1614,12 +1613,43 @@
   <si>
     <t>모서리 짤림, 테스트 영상 없음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤경</t>
+  </si>
+  <si>
+    <t>전인규</t>
+  </si>
+  <si>
+    <t>POL75U</t>
+  </si>
+  <si>
+    <t>김병준</t>
+  </si>
+  <si>
+    <t>김현국</t>
+  </si>
+  <si>
+    <t>박지은</t>
+  </si>
+  <si>
+    <t>POL65U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향임</t>
+  </si>
+  <si>
+    <t>최병현</t>
+  </si>
+  <si>
+    <t>최오섭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1860,23 +1890,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1912,23 +1925,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2104,7 +2100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4187,7 +4183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5557,11 +5553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5829,67 +5825,147 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D15" s="2">
+        <v>201642</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D16" s="2">
+        <v>201668</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D17" s="2">
+        <v>201805</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D18" s="2">
+        <v>202090</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D19" s="2">
+        <v>201977</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43814</v>
+      </c>
+      <c r="D20" s="2">
+        <v>202043</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D21" s="2">
+        <v>201944</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D22" s="2">
+        <v>202056</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6124,7 +6200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6809,7 +6885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7276,10 +7352,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -7803,7 +7879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8240,7 +8316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33186D52-2315-4F2C-9859-7D62CB4EFBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="615" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="423">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1644,12 +1645,36 @@
   </si>
   <si>
     <t>최오섭</t>
+  </si>
+  <si>
+    <t>설치 사진 없음.</t>
+  </si>
+  <si>
+    <t>권지안</t>
+  </si>
+  <si>
+    <t>박스 사진만 있음</t>
+  </si>
+  <si>
+    <t>설치 사진 미흡.</t>
+  </si>
+  <si>
+    <t>임미옥</t>
+  </si>
+  <si>
+    <t>한쪽 모서리 짤림.</t>
+  </si>
+  <si>
+    <t>신선미</t>
+  </si>
+  <si>
+    <t>서효주</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1890,6 +1915,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1925,6 +1967,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2100,7 +2159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4183,7 +4242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5553,10 +5612,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6200,11 +6259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6608,39 +6667,83 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D21" s="2">
+        <v>201834</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43815</v>
+      </c>
+      <c r="D22" s="2">
+        <v>202120</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43815</v>
+      </c>
+      <c r="D23" s="2">
+        <v>202243</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D24" s="2">
+        <v>202209</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -6885,7 +6988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7352,7 +7455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7879,7 +7982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8316,7 +8419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33186D52-2315-4F2C-9859-7D62CB4EFBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C4EAF-0A1D-44AC-8ED8-2E8308523721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="430">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1669,6 +1669,34 @@
   </si>
   <si>
     <t>서효주</t>
+  </si>
+  <si>
+    <t>이종원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 사진 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 양쪽 모서리 짤림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6262,7 +6290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -6991,8 +7019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7080,35 +7108,81 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D5" s="2">
+        <v>202394</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43811</v>
+      </c>
+      <c r="D6" s="2">
+        <v>202493</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D7" s="2">
+        <v>202639</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C4EAF-0A1D-44AC-8ED8-2E8308523721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75EBC58-D0FC-4757-A3CD-BC26ED4D8A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="436">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1696,6 +1696,30 @@
   </si>
   <si>
     <t>센터판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내용에 회수 시리얼 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고경필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내용에 회수, 설치 시리얼 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7019,7 +7043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -7532,8 +7556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7721,35 +7745,77 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D10" s="2">
+        <v>201723</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43811</v>
+      </c>
+      <c r="D11" s="2">
+        <v>202294</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D12" s="2">
+        <v>183945</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D13" s="2">
+        <v>202862</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75EBC58-D0FC-4757-A3CD-BC26ED4D8A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="447">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1721,12 +1720,48 @@
   <si>
     <t>김종율</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임이원</t>
+  </si>
+  <si>
+    <t>신송웅</t>
+  </si>
+  <si>
+    <t>백무현</t>
+  </si>
+  <si>
+    <t>김미영</t>
+  </si>
+  <si>
+    <t>안인태</t>
+  </si>
+  <si>
+    <t>POL55U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이광철</t>
+  </si>
+  <si>
+    <t>박청휘</t>
+  </si>
+  <si>
+    <t>제품 정상 영상사진없음 파손면책만올림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">55PUN6102 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박형근</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1967,23 +2002,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2019,23 +2037,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2211,7 +2212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4294,7 +4295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5664,11 +5665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6080,67 +6081,149 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D23" s="2">
+        <v>202248</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D24" s="2">
+        <v>202353</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D25" s="2">
+        <v>202352</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D26" s="2">
+        <v>202244</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D27" s="2">
+        <v>202221</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D28" s="2">
+        <v>202471</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D29" s="2">
+        <v>202532</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D30" s="2">
+        <v>202538</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6311,7 +6394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7040,7 +7123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7553,10 +7636,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -8122,7 +8205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8559,7 +8642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="436">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,42 +1720,6 @@
   <si>
     <t>김종율</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임이원</t>
-  </si>
-  <si>
-    <t>신송웅</t>
-  </si>
-  <si>
-    <t>백무현</t>
-  </si>
-  <si>
-    <t>김미영</t>
-  </si>
-  <si>
-    <t>안인태</t>
-  </si>
-  <si>
-    <t>POL55U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이광철</t>
-  </si>
-  <si>
-    <t>박청휘</t>
-  </si>
-  <si>
-    <t>제품 정상 영상사진없음 파손면책만올림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">55PUN6102 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박형근</t>
   </si>
 </sst>
 </file>
@@ -2213,11 +2177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4285,6 +4249,11 @@
       </c>
       <c r="F112" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5668,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6081,149 +6050,67 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C23" s="15">
-        <v>43810</v>
-      </c>
-      <c r="D23" s="2">
-        <v>202248</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C24" s="15">
-        <v>43813</v>
-      </c>
-      <c r="D24" s="2">
-        <v>202353</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C25" s="15">
-        <v>43813</v>
-      </c>
-      <c r="D25" s="2">
-        <v>202352</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C26" s="15">
-        <v>43812</v>
-      </c>
-      <c r="D26" s="2">
-        <v>202244</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C27" s="15">
-        <v>43810</v>
-      </c>
-      <c r="D27" s="2">
-        <v>202221</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C28" s="15">
-        <v>43813</v>
-      </c>
-      <c r="D28" s="2">
-        <v>202471</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C29" s="15">
-        <v>43816</v>
-      </c>
-      <c r="D29" s="2">
-        <v>202532</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>444</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C30" s="15">
-        <v>43812</v>
-      </c>
-      <c r="D30" s="2">
-        <v>202538</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>445</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2177,11 +2177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4254,6 +4254,11 @@
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2177,11 +2177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4251,14 +4251,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>123</v>
+      <c r="D113">
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140"/>
+    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="442">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,6 +1720,26 @@
   <si>
     <t>김종율</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서덕민</t>
+  </si>
+  <si>
+    <t>이창규</t>
+  </si>
+  <si>
+    <t>싱재덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은진</t>
+  </si>
+  <si>
+    <t>75PUN7133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고동우</t>
   </si>
 </sst>
 </file>
@@ -2179,9 +2199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5640,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6053,43 +6073,93 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D23" s="2">
+        <v>203136</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D24" s="2">
+        <v>203272</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D25" s="2">
+        <v>203323</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D26" s="2">
+        <v>203322</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D27" s="2">
+        <v>203393</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="454">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1740,6 +1740,45 @@
   </si>
   <si>
     <t>고동우</t>
+  </si>
+  <si>
+    <t>이성식</t>
+  </si>
+  <si>
+    <t>POL55U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문다형</t>
+  </si>
+  <si>
+    <t>김덕기</t>
+  </si>
+  <si>
+    <t>면책동의만 있고 정상인지 확인사진 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김항섭/A급</t>
+  </si>
+  <si>
+    <t>50PUN6102 리퍼</t>
+  </si>
+  <si>
+    <t>통신사 미기재, 사진 흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수미</t>
+  </si>
+  <si>
+    <t>김현희</t>
+  </si>
+  <si>
+    <t>강병문</t>
+  </si>
+  <si>
+    <t>김현우</t>
   </si>
 </sst>
 </file>
@@ -5660,8 +5699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6163,67 +6202,153 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D28" s="2">
+        <v>203452</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D29" s="2">
+        <v>203517</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D30" s="2">
+        <v>203728</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C31" s="15">
+        <v>43820</v>
+      </c>
+      <c r="D31" s="2">
+        <v>203809</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="15">
+        <v>43820</v>
+      </c>
+      <c r="D32" s="2">
+        <v>203840</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C33" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D33" s="2">
+        <v>204061</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D34" s="2">
+        <v>204237</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D35" s="2">
+        <v>204244</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC0ADAD-92B1-4264-852F-CCEF2B97A2D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1740" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="469">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1779,12 +1780,70 @@
   </si>
   <si>
     <t>김현우</t>
+  </si>
+  <si>
+    <t>지희광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서본주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러코드문화연구소/A급</t>
+  </si>
+  <si>
+    <t>POL55U 리퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박승종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장옥수(최승현)/A급</t>
+  </si>
+  <si>
+    <t>하재성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전재용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황재문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정광빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 사진만 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신기우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2025,6 +2084,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2060,6 +2136,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2235,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4326,7 +4419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5696,10 +5789,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -6479,11 +6572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6967,112 +7060,234 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D25" s="2">
+        <v>201108</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D26" s="2">
+        <v>201869</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D27" s="2">
+        <v>201945</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43815</v>
+      </c>
+      <c r="D28" s="2">
+        <v>202243</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D29" s="2">
+        <v>202651</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D30" s="2">
+        <v>202743</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D31" s="2">
+        <v>202965</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D32" s="2">
+        <v>203180</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D33" s="2">
+        <v>203290</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D34" s="2">
+        <v>203426</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D35" s="2">
+        <v>203847</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D36" s="2">
+        <v>203981</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -7208,11 +7423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7378,11 +7593,21 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D9" s="2">
+        <v>203540</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -7721,7 +7946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8290,7 +8515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8727,7 +8952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC0ADAD-92B1-4264-852F-CCEF2B97A2D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9828F-AFE9-4540-B6EA-CFB904B460C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="488">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1837,6 +1837,81 @@
   </si>
   <si>
     <t>신기우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이가나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트영상 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박동주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조해성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">베젤 다 잘림 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한기평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 / 라고 표기된 설치건은 사진이 거꾸로 올라와 있거나, 베젤 부분 짤린 사진이 대부분입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서우리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정남훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U 리퍼</t>
+  </si>
+  <si>
+    <t>한숙희/A급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수 시리얼 조치상세내용에 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전영식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 부분 포장지에 가려져 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조남은</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7426,7 +7501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -7947,10 +8022,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8212,110 +8287,253 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D14" s="2">
+        <v>201861</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D15" s="2">
+        <v>202751</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D16" s="2">
+        <v>203265</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D17" s="2">
+        <v>203534</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D18" s="2">
+        <v>203715</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D19" s="2">
+        <v>203693</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="G19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D20" s="2">
+        <v>203928</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D21" s="2">
+        <v>203935</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D22" s="2">
+        <v>204065</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D23" s="2">
+        <v>204187</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D24" s="2">
+        <v>203218</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43822</v>
+      </c>
+      <c r="D25" s="2">
+        <v>204358</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43820</v>
+      </c>
+      <c r="D26" s="2">
+        <v>204360</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -8323,7 +8541,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -8331,7 +8549,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -8339,7 +8557,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -8347,7 +8565,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -8355,7 +8573,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9828F-AFE9-4540-B6EA-CFB904B460C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="529">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1912,13 +1911,177 @@
   </si>
   <si>
     <t>조남은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치 사진 불충분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 초첨 맞지 않으며 화면 켜서 찍어진 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량수리건 - 씨리얼 넘버 메모1에 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제갈인하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불량점검건 - 씨리얼 넘버 메모1에 미기재 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김순옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 초첨 맞지않고 부족함 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송석진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>janaka prasad2019-12-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 테스트 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서진호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최용은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김라희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 초첨 맞지않고 부족함, 화면 테스트 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치 사진 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이알바트로스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없고 화면 테스트 사진도 없으며 컴퓨터 연결예정이라고 써있음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신지혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없고 화면 테스트 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천건영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양성우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문점검 씨리얼 넘버 메모1에 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김길용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치환경 미기재 - 이호봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위충복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노춘자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼넘버 미기재, 설치사진 미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방동우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종현/권근순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내용에 안적고 메모2에 적음 - 이호봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍라형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서정훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이종환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤자희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치거부로 배송까지만 희망하셨습니다. - 파손되어도 조치 어렵다는 동의 내용 확인 안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2159,23 +2322,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2211,23 +2357,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2403,12 +2532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4478,12 +4607,321 @@
         <v>366</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>1</v>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>488</v>
+      </c>
+      <c r="B113" t="s">
+        <v>489</v>
+      </c>
+      <c r="C113" s="14">
+        <v>43812</v>
       </c>
       <c r="D113">
-        <v>555</v>
+        <v>200555</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>491</v>
+      </c>
+      <c r="C114" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D114">
+        <v>169869</v>
+      </c>
+      <c r="E114" t="s">
+        <v>161</v>
+      </c>
+      <c r="F114" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>493</v>
+      </c>
+      <c r="C115" s="14">
+        <v>43802</v>
+      </c>
+      <c r="D115">
+        <v>201052</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>488</v>
+      </c>
+      <c r="B116" t="s">
+        <v>495</v>
+      </c>
+      <c r="C116" s="14">
+        <v>43805</v>
+      </c>
+      <c r="D116">
+        <v>201757</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>488</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="14">
+        <v>43805</v>
+      </c>
+      <c r="D117">
+        <v>201904</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>488</v>
+      </c>
+      <c r="B118" t="s">
+        <v>497</v>
+      </c>
+      <c r="C118" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D118">
+        <v>202015</v>
+      </c>
+      <c r="E118" t="s">
+        <v>76</v>
+      </c>
+      <c r="F118" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119" t="s">
+        <v>498</v>
+      </c>
+      <c r="C119" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D119">
+        <v>202282</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>488</v>
+      </c>
+      <c r="B120" t="s">
+        <v>499</v>
+      </c>
+      <c r="D120">
+        <v>202430</v>
+      </c>
+      <c r="E120" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>488</v>
+      </c>
+      <c r="B121" t="s">
+        <v>501</v>
+      </c>
+      <c r="C121" s="14">
+        <v>43804</v>
+      </c>
+      <c r="D121">
+        <v>202423</v>
+      </c>
+      <c r="E121" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>488</v>
+      </c>
+      <c r="B122" t="s">
+        <v>502</v>
+      </c>
+      <c r="C122" s="14">
+        <v>43809</v>
+      </c>
+      <c r="D122">
+        <v>202429</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>488</v>
+      </c>
+      <c r="B123" t="s">
+        <v>503</v>
+      </c>
+      <c r="C123" s="14">
+        <v>43817</v>
+      </c>
+      <c r="D123">
+        <v>202684</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>488</v>
+      </c>
+      <c r="B124" t="s">
+        <v>504</v>
+      </c>
+      <c r="C124" s="14">
+        <v>43817</v>
+      </c>
+      <c r="D124">
+        <v>202656</v>
+      </c>
+      <c r="E124" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>506</v>
+      </c>
+      <c r="B125" t="s">
+        <v>507</v>
+      </c>
+      <c r="C125" s="14">
+        <v>43818</v>
+      </c>
+      <c r="D125">
+        <v>202655</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>488</v>
+      </c>
+      <c r="B126" t="s">
+        <v>509</v>
+      </c>
+      <c r="C126" s="14">
+        <v>43818</v>
+      </c>
+      <c r="D126">
+        <v>202685</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>488</v>
+      </c>
+      <c r="B127" t="s">
+        <v>511</v>
+      </c>
+      <c r="C127" s="14">
+        <v>43816</v>
+      </c>
+      <c r="D127">
+        <v>203009</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s">
+        <v>512</v>
+      </c>
+      <c r="C128" s="14">
+        <v>43815</v>
+      </c>
+      <c r="D128">
+        <v>158669</v>
+      </c>
+      <c r="E128" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -4494,11 +4932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5856,6 +6294,226 @@
         <v>400</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>514</v>
+      </c>
+      <c r="C74" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D74" s="18">
+        <v>201477</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>516</v>
+      </c>
+      <c r="C75" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D75" s="18">
+        <v>201529</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C76" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D76" s="18">
+        <v>201590</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" t="s">
+        <v>519</v>
+      </c>
+      <c r="C77" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D77" s="18">
+        <v>201775</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B78" t="s">
+        <v>520</v>
+      </c>
+      <c r="C78" s="9">
+        <v>43810</v>
+      </c>
+      <c r="D78" s="18">
+        <v>175143</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>521</v>
+      </c>
+      <c r="C79" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D79" s="18">
+        <v>207936</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C80" s="9">
+        <v>43810</v>
+      </c>
+      <c r="D80" s="18">
+        <v>202167</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>524</v>
+      </c>
+      <c r="C81" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D81" s="18">
+        <v>202109</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>525</v>
+      </c>
+      <c r="C82" s="9">
+        <v>43809</v>
+      </c>
+      <c r="D82" s="18">
+        <v>201857</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>526</v>
+      </c>
+      <c r="C83" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D83" s="18">
+        <v>201948</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>527</v>
+      </c>
+      <c r="C84" s="9">
+        <v>43809</v>
+      </c>
+      <c r="D84" s="18">
+        <v>202283</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5864,7 +6522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -6647,7 +7305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7498,7 +8156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8021,10 +8679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -8733,7 +9391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9170,7 +9828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdel-cs1\Desktop\d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4088D004-14CA-4A00-990E-F6B0514AF886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1230" windowWidth="20820" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
     <sheet name="제주" sheetId="10" r:id="rId7"/>
     <sheet name="통합" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="529">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1146,14 +1145,6 @@
     <t>50PUN6183</t>
   </si>
   <si>
-    <t>sdfsdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설치 사진 없음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1200,12 +1191,897 @@
   </si>
   <si>
     <t>55PUN6103</t>
+  </si>
+  <si>
+    <t>설치환경 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손옥수</t>
+  </si>
+  <si>
+    <t>설치환경 미흡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오금화</t>
+  </si>
+  <si>
+    <t>POL43U</t>
+  </si>
+  <si>
+    <t>이애순</t>
+  </si>
+  <si>
+    <t>문지선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수 시리얼 메모2에 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 미흡.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문기용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 양쪽 모서리 짤림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70PUN6184</t>
+  </si>
+  <si>
+    <t>김창균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 번호 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유범신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 구매/시리얼번호 조치상세내용에 2개, 메모1과 2에 각각 1개씩 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽근식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최송악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한쪽 모서리 짤림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이로 정창호 대표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김오성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모서리 짤림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백인걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuwan pradeepa</t>
+  </si>
+  <si>
+    <t>55PUN6784</t>
+  </si>
+  <si>
+    <t>송호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75PUN7133</t>
+  </si>
+  <si>
+    <t>김연주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼 메모1이아닌2에도적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상오 과장님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신연옥</t>
+  </si>
+  <si>
+    <t>이미랑</t>
+  </si>
+  <si>
+    <t>원기영</t>
+  </si>
+  <si>
+    <t>정상사진 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)힐메디헬스케어</t>
+  </si>
+  <si>
+    <t>최훈배</t>
+  </si>
+  <si>
+    <t>58PUN6183</t>
+  </si>
+  <si>
+    <t>최승선</t>
+  </si>
+  <si>
+    <t>50PUN6102</t>
+  </si>
+  <si>
+    <t>김철호</t>
+  </si>
+  <si>
+    <t>곽기용</t>
+  </si>
+  <si>
+    <t>김태영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이창준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없음  - 구 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강주희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이춘부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없음 , 설치환경 미기재 - 구 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하정욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4대 설치했는데 화면 테스트 한사진 한대밖에 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜이엠씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 초첨 맞지 않음 - 구 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이형석 이사님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 설치했는데 화면 켜서 테스트 한 사진 없으며 설치환경도 미기재하였음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV 설치 환경 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심상만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오민환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설치환경 미기재 하였으며 사진도 한장만 올려 설치 사진 부족함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정직영부장님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 대 설치인데 화면 확인 어려움 1대만 명확함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검사항 기재 불충분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70PUN6184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검사항 자세히 적지 않고 미기재-방문점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치환경 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">남윤주 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55PUN6102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 비스듬히 찍고 초첨 맞지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍경택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 모서리 안보이게 찍혀 확인 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정남재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 비스듬히 찍어 확인 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장승길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV 설치 사진 불충분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65PUN6784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 잘려서 확인어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서순녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50PUN6102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이강룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내역에 아무것도 적지 않음-메모2에 적음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼넘버 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권인호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65PUN6703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼넘버 미기재 - 방문점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여문기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모서리 짤림, 테스트 영상 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤경</t>
+  </si>
+  <si>
+    <t>전인규</t>
+  </si>
+  <si>
+    <t>POL75U</t>
+  </si>
+  <si>
+    <t>김병준</t>
+  </si>
+  <si>
+    <t>김현국</t>
+  </si>
+  <si>
+    <t>박지은</t>
+  </si>
+  <si>
+    <t>POL65U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향임</t>
+  </si>
+  <si>
+    <t>최병현</t>
+  </si>
+  <si>
+    <t>최오섭</t>
+  </si>
+  <si>
+    <t>설치 사진 없음.</t>
+  </si>
+  <si>
+    <t>권지안</t>
+  </si>
+  <si>
+    <t>박스 사진만 있음</t>
+  </si>
+  <si>
+    <t>설치 사진 미흡.</t>
+  </si>
+  <si>
+    <t>임미옥</t>
+  </si>
+  <si>
+    <t>한쪽 모서리 짤림.</t>
+  </si>
+  <si>
+    <t>신선미</t>
+  </si>
+  <si>
+    <t>서효주</t>
+  </si>
+  <si>
+    <t>이종원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 사진 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최영철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 양쪽 모서리 짤림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내용에 회수 시리얼 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고경필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내용에 회수, 설치 시리얼 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서덕민</t>
+  </si>
+  <si>
+    <t>이창규</t>
+  </si>
+  <si>
+    <t>싱재덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은진</t>
+  </si>
+  <si>
+    <t>75PUN7133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고동우</t>
+  </si>
+  <si>
+    <t>이성식</t>
+  </si>
+  <si>
+    <t>POL55U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문다형</t>
+  </si>
+  <si>
+    <t>김덕기</t>
+  </si>
+  <si>
+    <t>면책동의만 있고 정상인지 확인사진 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김항섭/A급</t>
+  </si>
+  <si>
+    <t>50PUN6102 리퍼</t>
+  </si>
+  <si>
+    <t>통신사 미기재, 사진 흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수미</t>
+  </si>
+  <si>
+    <t>김현희</t>
+  </si>
+  <si>
+    <t>강병문</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>지희광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서본주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러코드문화연구소/A급</t>
+  </si>
+  <si>
+    <t>POL55U 리퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박승종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장옥수(최승현)/A급</t>
+  </si>
+  <si>
+    <t>하재성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전재용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황재문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정광빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 사진만 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신기우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이가나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트영상 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박동주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조해성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">베젤 다 잘림 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한기평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 / 라고 표기된 설치건은 사진이 거꾸로 올라와 있거나, 베젤 부분 짤린 사진이 대부분입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서우리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정남훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POL55U 리퍼</t>
+  </si>
+  <si>
+    <t>한숙희/A급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수 시리얼 조치상세내용에 기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전영식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 부분 포장지에 가려져 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조남은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치 사진 불충분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 초첨 맞지 않으며 화면 켜서 찍어진 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김나경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량수리건 - 씨리얼 넘버 메모1에 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제갈인하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불량점검건 - 씨리얼 넘버 메모1에 미기재 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김순옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 초첨 맞지않고 부족함 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송석진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>janaka prasad2019-12-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 테스트 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서진호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최용은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김라희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치사진 초첨 맞지않고 부족함, 화면 테스트 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치 사진 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이알바트로스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없고 화면 테스트 사진도 없으며 컴퓨터 연결예정이라고 써있음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신지혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 없고 화면 테스트 사진 없음 - 성 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천건영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양성우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문점검 씨리얼 넘버 메모1에 미기재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김길용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치환경 미기재 - 이호봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위충복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노춘자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼넘버 미기재, 설치사진 미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방동우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종현/권근순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치상세내용에 안적고 메모2에 적음 - 이호봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍라형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서정훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이종환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤자희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치거부로 배송까지만 희망하셨습니다. - 파손되어도 조치 어렵다는 동의 내용 확인 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -1292,7 +2168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,6 +2216,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,23 +2322,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1486,23 +2357,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1678,12 +2532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3574,6 +4428,502 @@
         <v>281</v>
       </c>
     </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" s="14">
+        <v>43800</v>
+      </c>
+      <c r="D104">
+        <v>199595</v>
+      </c>
+      <c r="E104" t="s">
+        <v>76</v>
+      </c>
+      <c r="F104" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" s="14">
+        <v>43807</v>
+      </c>
+      <c r="D105">
+        <v>200004</v>
+      </c>
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="14">
+        <v>43800</v>
+      </c>
+      <c r="D106">
+        <v>200135</v>
+      </c>
+      <c r="E106" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>347</v>
+      </c>
+      <c r="B107" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="14">
+        <v>43800</v>
+      </c>
+      <c r="D107">
+        <v>200111</v>
+      </c>
+      <c r="E107" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" s="14">
+        <v>43804</v>
+      </c>
+      <c r="D108">
+        <v>200109</v>
+      </c>
+      <c r="E108" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="14">
+        <v>43803</v>
+      </c>
+      <c r="D109">
+        <v>200249</v>
+      </c>
+      <c r="E109" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" t="s">
+        <v>360</v>
+      </c>
+      <c r="C110" s="14">
+        <v>43801</v>
+      </c>
+      <c r="D110">
+        <v>200369</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" t="s">
+        <v>363</v>
+      </c>
+      <c r="C111" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D111">
+        <v>200675</v>
+      </c>
+      <c r="E111" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>365</v>
+      </c>
+      <c r="C112" s="14">
+        <v>43801</v>
+      </c>
+      <c r="D112">
+        <v>200762</v>
+      </c>
+      <c r="E112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>488</v>
+      </c>
+      <c r="B113" t="s">
+        <v>489</v>
+      </c>
+      <c r="C113" s="14">
+        <v>43812</v>
+      </c>
+      <c r="D113">
+        <v>200555</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>491</v>
+      </c>
+      <c r="C114" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D114">
+        <v>169869</v>
+      </c>
+      <c r="E114" t="s">
+        <v>161</v>
+      </c>
+      <c r="F114" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>493</v>
+      </c>
+      <c r="C115" s="14">
+        <v>43802</v>
+      </c>
+      <c r="D115">
+        <v>201052</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>488</v>
+      </c>
+      <c r="B116" t="s">
+        <v>495</v>
+      </c>
+      <c r="C116" s="14">
+        <v>43805</v>
+      </c>
+      <c r="D116">
+        <v>201757</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>488</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="14">
+        <v>43805</v>
+      </c>
+      <c r="D117">
+        <v>201904</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>488</v>
+      </c>
+      <c r="B118" t="s">
+        <v>497</v>
+      </c>
+      <c r="C118" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D118">
+        <v>202015</v>
+      </c>
+      <c r="E118" t="s">
+        <v>76</v>
+      </c>
+      <c r="F118" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119" t="s">
+        <v>498</v>
+      </c>
+      <c r="C119" s="14">
+        <v>43808</v>
+      </c>
+      <c r="D119">
+        <v>202282</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>488</v>
+      </c>
+      <c r="B120" t="s">
+        <v>499</v>
+      </c>
+      <c r="D120">
+        <v>202430</v>
+      </c>
+      <c r="E120" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>488</v>
+      </c>
+      <c r="B121" t="s">
+        <v>501</v>
+      </c>
+      <c r="C121" s="14">
+        <v>43804</v>
+      </c>
+      <c r="D121">
+        <v>202423</v>
+      </c>
+      <c r="E121" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>488</v>
+      </c>
+      <c r="B122" t="s">
+        <v>502</v>
+      </c>
+      <c r="C122" s="14">
+        <v>43809</v>
+      </c>
+      <c r="D122">
+        <v>202429</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>488</v>
+      </c>
+      <c r="B123" t="s">
+        <v>503</v>
+      </c>
+      <c r="C123" s="14">
+        <v>43817</v>
+      </c>
+      <c r="D123">
+        <v>202684</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>488</v>
+      </c>
+      <c r="B124" t="s">
+        <v>504</v>
+      </c>
+      <c r="C124" s="14">
+        <v>43817</v>
+      </c>
+      <c r="D124">
+        <v>202656</v>
+      </c>
+      <c r="E124" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>506</v>
+      </c>
+      <c r="B125" t="s">
+        <v>507</v>
+      </c>
+      <c r="C125" s="14">
+        <v>43818</v>
+      </c>
+      <c r="D125">
+        <v>202655</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>488</v>
+      </c>
+      <c r="B126" t="s">
+        <v>509</v>
+      </c>
+      <c r="C126" s="14">
+        <v>43818</v>
+      </c>
+      <c r="D126">
+        <v>202685</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>488</v>
+      </c>
+      <c r="B127" t="s">
+        <v>511</v>
+      </c>
+      <c r="C127" s="14">
+        <v>43816</v>
+      </c>
+      <c r="D127">
+        <v>203009</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s">
+        <v>512</v>
+      </c>
+      <c r="C128" s="14">
+        <v>43815</v>
+      </c>
+      <c r="D128">
+        <v>158669</v>
+      </c>
+      <c r="E128" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" t="s">
+        <v>513</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3582,11 +4932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4668,6 +6018,502 @@
         <v>166</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>368</v>
+      </c>
+      <c r="C60" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D60" s="18">
+        <v>198261</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D61" s="18">
+        <v>193117</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B62" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D62" s="18">
+        <v>199219</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D63" s="18">
+        <v>199343</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>380</v>
+      </c>
+      <c r="C64" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D64" s="18">
+        <v>199994</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D65" s="18">
+        <v>200381</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" s="9">
+        <v>43803</v>
+      </c>
+      <c r="D66" s="18">
+        <v>200395</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C67" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D67" s="18">
+        <v>200403</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>388</v>
+      </c>
+      <c r="C68" s="9">
+        <v>43802</v>
+      </c>
+      <c r="D68" s="18">
+        <v>200579</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>389</v>
+      </c>
+      <c r="C69" s="9">
+        <v>43801</v>
+      </c>
+      <c r="D69" s="18">
+        <v>200693</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>390</v>
+      </c>
+      <c r="C70" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D70" s="18">
+        <v>200818</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="F70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>393</v>
+      </c>
+      <c r="C71" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D71" s="18">
+        <v>201033</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
+        <v>395</v>
+      </c>
+      <c r="C72" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D72" s="18">
+        <v>2021238</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B73" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D73" s="18">
+        <v>177769</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F73" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>514</v>
+      </c>
+      <c r="C74" s="9">
+        <v>43806</v>
+      </c>
+      <c r="D74" s="18">
+        <v>201477</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>516</v>
+      </c>
+      <c r="C75" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D75" s="18">
+        <v>201529</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C76" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D76" s="18">
+        <v>201590</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" t="s">
+        <v>519</v>
+      </c>
+      <c r="C77" s="9">
+        <v>43805</v>
+      </c>
+      <c r="D77" s="18">
+        <v>201775</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B78" t="s">
+        <v>520</v>
+      </c>
+      <c r="C78" s="9">
+        <v>43810</v>
+      </c>
+      <c r="D78" s="18">
+        <v>175143</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>521</v>
+      </c>
+      <c r="C79" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D79" s="18">
+        <v>207936</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>523</v>
+      </c>
+      <c r="C80" s="9">
+        <v>43810</v>
+      </c>
+      <c r="D80" s="18">
+        <v>202167</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>524</v>
+      </c>
+      <c r="C81" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D81" s="18">
+        <v>202109</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>525</v>
+      </c>
+      <c r="C82" s="9">
+        <v>43809</v>
+      </c>
+      <c r="D82" s="18">
+        <v>201857</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>526</v>
+      </c>
+      <c r="C83" s="9">
+        <v>43811</v>
+      </c>
+      <c r="D83" s="18">
+        <v>201948</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>527</v>
+      </c>
+      <c r="C84" s="9">
+        <v>43809</v>
+      </c>
+      <c r="D84" s="18">
+        <v>202283</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4676,16 +6522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -4714,279 +6560,621 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200859</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200978</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D4" s="2">
+        <v>201019</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200815</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D6" s="2">
+        <v>201119</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D7" s="2">
+        <v>201120</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D8" s="2">
+        <v>201124</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D9" s="2">
+        <v>201188</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D10" s="2">
+        <v>201342</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D11" s="2">
+        <v>201429</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43807</v>
+      </c>
+      <c r="D12" s="2">
+        <v>201584</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43806</v>
+      </c>
+      <c r="D13" s="2">
+        <v>201571</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43806</v>
+      </c>
+      <c r="D14" s="2">
+        <v>201613</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D15" s="2">
+        <v>201642</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D16" s="2">
+        <v>201668</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D17" s="2">
+        <v>201805</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D18" s="2">
+        <v>202090</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D19" s="2">
+        <v>201977</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43814</v>
+      </c>
+      <c r="D20" s="2">
+        <v>202043</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D21" s="2">
+        <v>201944</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43813</v>
+      </c>
+      <c r="D22" s="2">
+        <v>202056</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D23" s="2">
+        <v>203136</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D24" s="2">
+        <v>203272</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D25" s="2">
+        <v>203323</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D26" s="2">
+        <v>203322</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D27" s="2">
+        <v>203393</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D28" s="2">
+        <v>203452</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D29" s="2">
+        <v>203517</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D30" s="2">
+        <v>203728</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C31" s="15">
+        <v>43820</v>
+      </c>
+      <c r="D31" s="2">
+        <v>203809</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" s="15">
+        <v>43820</v>
+      </c>
+      <c r="D32" s="2">
+        <v>203840</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C33" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D33" s="2">
+        <v>204061</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D34" s="2">
+        <v>204237</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D35" s="2">
+        <v>204244</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5117,11 +7305,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5148,21 +7336,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="15">
         <v>43802</v>
@@ -5178,10 +7366,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="15">
         <v>43802</v>
@@ -5191,16 +7379,16 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="15">
         <v>43802</v>
@@ -5210,16 +7398,16 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="15">
         <v>43803</v>
@@ -5235,10 +7423,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" s="15">
         <v>43803</v>
@@ -5248,279 +7436,591 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43804</v>
+      </c>
+      <c r="D7" s="1">
+        <v>199104</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D8" s="2">
+        <v>199532</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D9" s="2">
+        <v>200884</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D10" s="2">
+        <v>195598</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D11" s="2">
+        <v>197533</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D12" s="2">
+        <v>199939</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D13" s="2">
+        <v>200449</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D14" s="2">
+        <v>200552</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D15" s="2">
+        <v>200537</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D16" s="2">
+        <v>200946</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D17" s="2">
+        <v>201358</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D18" s="2">
+        <v>201434</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43809</v>
+      </c>
+      <c r="D19" s="2">
+        <v>200204</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43809</v>
+      </c>
+      <c r="D20" s="2">
+        <v>201437</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D21" s="2">
+        <v>201834</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43815</v>
+      </c>
+      <c r="D22" s="2">
+        <v>202120</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43815</v>
+      </c>
+      <c r="D23" s="2">
+        <v>202243</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D24" s="2">
+        <v>202209</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D25" s="2">
+        <v>201108</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D26" s="2">
+        <v>201869</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D27" s="2">
+        <v>201945</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43815</v>
+      </c>
+      <c r="D28" s="2">
+        <v>202243</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D29" s="2">
+        <v>202651</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D30" s="2">
+        <v>202743</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D31" s="2">
+        <v>202965</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D32" s="2">
+        <v>203180</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D33" s="2">
+        <v>203290</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D34" s="2">
+        <v>203426</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D35" s="2">
+        <v>203847</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D36" s="2">
+        <v>203981</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -5656,11 +8156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5695,10 +8195,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="15">
         <v>43803</v>
@@ -5707,64 +8207,140 @@
         <v>201178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D4" s="2">
+        <v>201297</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D5" s="2">
+        <v>202394</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43811</v>
+      </c>
+      <c r="D6" s="2">
+        <v>202493</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D7" s="2">
+        <v>202639</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43818</v>
+      </c>
+      <c r="D9" s="2">
+        <v>203540</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,11 +8679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6141,206 +8717,481 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="16">
+        <v>43801</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200164</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43801</v>
+      </c>
+      <c r="D3" s="2">
+        <v>198460</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43801</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200397</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43802</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200733</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200913</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43805</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200926</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43804</v>
+      </c>
+      <c r="D8" s="2">
+        <v>201129</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43803</v>
+      </c>
+      <c r="D9" s="2">
+        <v>201220</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43810</v>
+      </c>
+      <c r="D10" s="2">
+        <v>201723</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43811</v>
+      </c>
+      <c r="D11" s="2">
+        <v>202294</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D12" s="2">
+        <v>183945</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43812</v>
+      </c>
+      <c r="D13" s="2">
+        <v>202862</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D14" s="2">
+        <v>201861</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D15" s="2">
+        <v>202751</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43816</v>
+      </c>
+      <c r="D16" s="2">
+        <v>203265</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D17" s="2">
+        <v>203534</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43817</v>
+      </c>
+      <c r="D18" s="2">
+        <v>203715</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D19" s="2">
+        <v>203693</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="G19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D20" s="2">
+        <v>203928</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D21" s="2">
+        <v>203935</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D22" s="2">
+        <v>204065</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D23" s="2">
+        <v>204187</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D24" s="2">
+        <v>203218</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43822</v>
+      </c>
+      <c r="D25" s="2">
+        <v>204358</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43820</v>
+      </c>
+      <c r="D26" s="2">
+        <v>204360</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -6348,7 +9199,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -6356,7 +9207,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -6364,7 +9215,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -6372,7 +9223,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -6380,7 +9231,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -6540,7 +9391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6977,7 +9828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="532">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2076,6 +2076,16 @@
   <si>
     <t>TV설치거부로 배송까지만 희망하셨습니다. - 파손되어도 조치 어렵다는 동의 내용 확인 안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송민수</t>
+  </si>
+  <si>
+    <t>면책동의 없으며 제품테스트사진 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장종호</t>
   </si>
 </sst>
 </file>
@@ -2536,8 +2546,8 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4935,8 +4945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6525,8 +6535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7178,19 +7188,41 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="15">
+        <v>43822</v>
+      </c>
+      <c r="D36" s="2">
+        <v>204378</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C37" s="15">
+        <v>43823</v>
+      </c>
+      <c r="D37" s="2">
+        <v>204409</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -6536,7 +6536,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7237,7 +7237,9 @@
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -6536,7 +6536,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7237,9 +7237,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="537">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2086,6 +2086,23 @@
   </si>
   <si>
     <t>장종호</t>
+  </si>
+  <si>
+    <t>서상현</t>
+  </si>
+  <si>
+    <t>박미라</t>
+  </si>
+  <si>
+    <t>시리얼 제대로적지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중으로 돌림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연숙</t>
   </si>
 </sst>
 </file>
@@ -6535,8 +6552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7226,27 +7243,59 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C38" s="15">
+        <v>43826</v>
+      </c>
+      <c r="D38" s="2">
+        <v>204494</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D39" s="2">
+        <v>204527</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C40" s="15">
+        <v>43826</v>
+      </c>
+      <c r="D40" s="2">
+        <v>204698</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30301F3F-2E8B-47B2-A676-216E4C95483A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1770" windowWidth="20820" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="7125" yWindow="1065" windowWidth="20820" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="556">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2103,12 +2104,88 @@
   </si>
   <si>
     <t>김연숙</t>
+  </si>
+  <si>
+    <t>고재환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고동훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 사진은 있으나, 테스트 영상 사진 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박시우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 사진은 있으나, 테스트 영상 사진 없음./모서리 잘림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 양쪽 모서리 부분 잘림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 모서리 부분 잘림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강병호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임주성 사장님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한쪽 하단부 잘림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세움교회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 사진 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김부영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권오용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2146,7 +2223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2189,13 +2266,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2254,6 +2357,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2349,6 +2458,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2384,6 +2510,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2559,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4959,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6549,10 +6692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -7386,11 +7529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8104,103 +8247,229 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C37" s="15">
+        <v>43825</v>
+      </c>
+      <c r="D37" s="2">
+        <v>201942</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C38" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D38" s="2">
+        <v>202482</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C39" s="15">
+        <v>43819</v>
+      </c>
+      <c r="D39" s="2">
+        <v>202754</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C40" s="15">
+        <v>43823</v>
+      </c>
+      <c r="D40" s="2">
+        <v>204343</v>
+      </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C41" s="15">
+        <v>43825</v>
+      </c>
+      <c r="D41" s="2">
+        <v>204628</v>
+      </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43825</v>
+      </c>
+      <c r="D42" s="2">
+        <v>204633</v>
+      </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43823</v>
+      </c>
+      <c r="D43" s="2">
+        <v>204949</v>
+      </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C44" s="15">
+        <v>43823</v>
+      </c>
+      <c r="D44" s="2">
+        <v>205044</v>
+      </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C45" s="15">
+        <v>43825</v>
+      </c>
+      <c r="D45" s="2">
+        <v>205046</v>
+      </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C46" s="15">
+        <v>43825</v>
+      </c>
+      <c r="D46" s="2">
+        <v>205081</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C47" s="15">
+        <v>43822</v>
+      </c>
+      <c r="D47" s="2">
+        <v>205145</v>
+      </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
@@ -8237,11 +8506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8425,19 +8694,37 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43823</v>
+      </c>
+      <c r="D10" s="2">
+        <v>205318</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43825</v>
+      </c>
+      <c r="D11" s="2">
+        <v>205181</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8753,6 +9040,9 @@
       <c r="F50" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8760,7 +9050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -9472,7 +9762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9909,7 +10199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="540">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2103,6 +2103,15 @@
   </si>
   <si>
     <t>김연숙</t>
+  </si>
+  <si>
+    <t>김용은</t>
+  </si>
+  <si>
+    <t>김귀임</t>
+  </si>
+  <si>
+    <t>이순임</t>
   </si>
 </sst>
 </file>
@@ -6553,7 +6562,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7299,27 +7308,57 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C41" s="15">
+        <v>43827</v>
+      </c>
+      <c r="D41" s="2">
+        <v>204785</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43828</v>
+      </c>
+      <c r="D42" s="2">
+        <v>204760</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43828</v>
+      </c>
+      <c r="D43" s="2">
+        <v>205033</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1065" windowWidth="20820" windowHeight="12975" activeTab="4"/>
+    <workbookView xWindow="7125" yWindow="1065" windowWidth="20820" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="560">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2183,6 +2183,15 @@
   <si>
     <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김용은</t>
+  </si>
+  <si>
+    <t>김귀임</t>
+  </si>
+  <si>
+    <t>이순임</t>
   </si>
 </sst>
 </file>
@@ -6664,8 +6673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7411,27 +7420,57 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C41" s="15">
+        <v>43827</v>
+      </c>
+      <c r="D41" s="2">
+        <v>204785</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43828</v>
+      </c>
+      <c r="D42" s="2">
+        <v>204760</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43828</v>
+      </c>
+      <c r="D43" s="2">
+        <v>205033</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8478,7 +8517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30301F3F-2E8B-47B2-A676-216E4C95483A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648D58E-A3B3-4F6C-944B-ED87890D80F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1065" windowWidth="20820" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -8510,7 +8510,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8772,7 +8772,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>123</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491BDDBA-177E-491B-8B3B-6BDC57F8893D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1065" windowWidth="20820" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="556">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2179,25 +2180,12 @@
   <si>
     <t>권오용</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김용은</t>
-  </si>
-  <si>
-    <t>김귀임</t>
-  </si>
-  <si>
-    <t>이순임</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2470,6 +2458,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2505,6 +2510,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2680,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6670,11 +6692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7420,57 +7442,27 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C41" s="15">
-        <v>43827</v>
-      </c>
-      <c r="D41" s="2">
-        <v>204785</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C42" s="15">
-        <v>43828</v>
-      </c>
-      <c r="D42" s="2">
-        <v>204760</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C43" s="15">
-        <v>43828</v>
-      </c>
-      <c r="D43" s="2">
-        <v>205033</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7537,7 +7529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -8514,11 +8506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8780,7 +8772,9 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>123</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -8788,9 +8782,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>556</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9060,7 +9052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -9772,7 +9764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10209,7 +10201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648D58E-A3B3-4F6C-944B-ED87890D80F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD384019-4299-4A98-954D-FE57125CF06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8510,7 +8510,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8764,7 +8764,9 @@
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491BDDBA-177E-491B-8B3B-6BDC57F8893D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="563">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2179,13 +2178,36 @@
   </si>
   <si>
     <t>권오용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영준</t>
+  </si>
+  <si>
+    <t>정의철</t>
+  </si>
+  <si>
+    <t>유승동</t>
+  </si>
+  <si>
+    <t>오삭영</t>
+  </si>
+  <si>
+    <t>유병준</t>
+  </si>
+  <si>
+    <t>수리후 상세내용없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리후 정상테스트 내역없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2458,23 +2480,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2510,23 +2515,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2702,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5102,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6692,11 +6680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7442,44 +7430,96 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C41" s="15">
+        <v>43826</v>
+      </c>
+      <c r="D41" s="2">
+        <v>205043</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C42" s="15">
+        <v>43826</v>
+      </c>
+      <c r="D42" s="2">
+        <v>205056</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43826</v>
+      </c>
+      <c r="D43" s="2">
+        <v>205019</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C44" s="15">
+        <v>43828</v>
+      </c>
+      <c r="D44" s="2">
+        <v>205138</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C45" s="15">
+        <v>43827</v>
+      </c>
+      <c r="D45" s="2">
+        <v>161872</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
@@ -7520,6 +7560,150 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7529,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -8506,10 +8690,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -9052,7 +9236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -9764,7 +9948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10201,7 +10385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2051CE-581E-4F83-952E-21B345231B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="570">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2201,13 +2202,41 @@
   </si>
   <si>
     <t>수리후 정상테스트 내역없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객과 통화 안되어 제품만 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중내용에 26일통화안됨, 30일통화안됨, 조치상세내용에 부재로 인한 전달이라고 기재되어있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현숙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2320,7 +2349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2386,6 +2415,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2480,6 +2515,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2515,6 +2567,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2690,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5090,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6680,10 +6749,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -7713,11 +7782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8656,31 +8725,105 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C48" s="15">
+        <v>43830</v>
+      </c>
+      <c r="D48" s="2">
+        <v>204549</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C49" s="15">
+        <v>43829</v>
+      </c>
+      <c r="D49" s="2">
+        <v>205314</v>
+      </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C50" s="15">
+        <v>43829</v>
+      </c>
+      <c r="D50" s="2">
+        <v>205891</v>
+      </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="C51" s="16">
+        <v>43829</v>
+      </c>
+      <c r="D51" s="23">
+        <v>205890</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="16">
+        <v>43829</v>
+      </c>
+      <c r="D52" s="23">
+        <v>206005</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8690,11 +8833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8912,11 +9055,21 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43830</v>
+      </c>
+      <c r="D12" s="2">
+        <v>205211</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9236,7 +9389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -9948,7 +10101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10385,7 +10538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2051CE-581E-4F83-952E-21B345231B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="573">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2230,13 +2229,25 @@
   </si>
   <si>
     <t>이현숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이병규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50PUN6183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치 사진 없음 - 다른곳에 할예정이라고 말만 남겨져있음 - 전정현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2410,17 +2421,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2515,23 +2526,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2567,23 +2561,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2759,7 +2736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5159,11 +5136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6741,6 +6718,26 @@
         <v>528</v>
       </c>
     </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" t="s">
+        <v>570</v>
+      </c>
+      <c r="C85" s="9">
+        <v>43815</v>
+      </c>
+      <c r="D85" s="18">
+        <v>202519</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="F85" t="s">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6749,7 +6746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -7782,11 +7779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8789,13 +8786,13 @@
       <c r="A51" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>569</v>
       </c>
       <c r="C51" s="16">
         <v>43829</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="21">
         <v>205890</v>
       </c>
       <c r="E51" s="1"/>
@@ -8810,13 +8807,13 @@
       <c r="A52" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C52" s="16">
         <v>43829</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="21">
         <v>206005</v>
       </c>
       <c r="E52" s="1"/>
@@ -8833,7 +8830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9021,7 +9018,7 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>553</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -9039,7 +9036,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>555</v>
       </c>
@@ -9389,7 +9386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -10101,7 +10098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10538,7 +10535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="571">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2202,6 +2202,32 @@
   <si>
     <t>수리후 정상테스트 내역없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강정란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환후 어떤게설치고 어떤게 회수인지모름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이오찬</t>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>민인식</t>
+  </si>
+  <si>
+    <t>김상원</t>
+  </si>
+  <si>
+    <t>이동규</t>
   </si>
 </sst>
 </file>
@@ -6683,8 +6709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7522,59 +7548,131 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="A46" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C46" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D46" s="2">
+        <v>202044</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C47" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D47" s="2">
+        <v>205244</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C48" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D48" s="2">
+        <v>205201</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C49" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D49" s="2">
+        <v>205310</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C50" s="15">
+        <v>43827</v>
+      </c>
+      <c r="D50" s="2">
+        <v>205320</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C51" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D51" s="2">
+        <v>205585</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C52" s="15">
+        <v>43827</v>
+      </c>
+      <c r="D52" s="2">
+        <v>205695</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="573">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2204,30 +2204,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강정란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교환후 어떤게설치고 어떤게 회수인지모름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이오찬</t>
-  </si>
-  <si>
-    <t>이상민</t>
-  </si>
-  <si>
-    <t>김수진</t>
-  </si>
-  <si>
-    <t>민인식</t>
-  </si>
-  <si>
-    <t>김상원</t>
-  </si>
-  <si>
-    <t>이동규</t>
+    <t>김효진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객과 통화 안되어 제품만 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중내용에 26일통화안됨, 30일통화안됨, 조치상세내용에 부재로 인한 전달이라고 기재되어있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이병규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50PUN6183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV설치 사진 없음 - 다른곳에 할예정이라고 말만 남겨져있음 - 전정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2346,7 +2360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2406,6 +2420,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5117,10 +5137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6698,6 +6718,26 @@
         <v>528</v>
       </c>
     </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" t="s">
+        <v>570</v>
+      </c>
+      <c r="C85" s="9">
+        <v>43815</v>
+      </c>
+      <c r="D85" s="18">
+        <v>202519</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="F85" t="s">
+        <v>572</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6709,8 +6749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7548,131 +7588,59 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C46" s="15">
-        <v>43831</v>
-      </c>
-      <c r="D46" s="2">
-        <v>202044</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>564</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C47" s="15">
-        <v>43831</v>
-      </c>
-      <c r="D47" s="2">
-        <v>205244</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C48" s="15">
-        <v>43831</v>
-      </c>
-      <c r="D48" s="2">
-        <v>205201</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C49" s="15">
-        <v>43831</v>
-      </c>
-      <c r="D49" s="2">
-        <v>205310</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C50" s="15">
-        <v>43827</v>
-      </c>
-      <c r="D50" s="2">
-        <v>205320</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C51" s="15">
-        <v>43831</v>
-      </c>
-      <c r="D51" s="2">
-        <v>205585</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C52" s="15">
-        <v>43827</v>
-      </c>
-      <c r="D52" s="2">
-        <v>205695</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7812,10 +7780,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8754,31 +8722,105 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C48" s="15">
+        <v>43830</v>
+      </c>
+      <c r="D48" s="2">
+        <v>204549</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C49" s="15">
+        <v>43829</v>
+      </c>
+      <c r="D49" s="2">
+        <v>205314</v>
+      </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C50" s="15">
+        <v>43829</v>
+      </c>
+      <c r="D50" s="2">
+        <v>205891</v>
+      </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C51" s="16">
+        <v>43829</v>
+      </c>
+      <c r="D51" s="21">
+        <v>205890</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="16">
+        <v>43829</v>
+      </c>
+      <c r="D52" s="21">
+        <v>206005</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8792,7 +8834,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8976,7 +9018,7 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>553</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -8994,7 +9036,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>555</v>
       </c>
@@ -9010,11 +9052,21 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43830</v>
+      </c>
+      <c r="D12" s="2">
+        <v>205211</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="582">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2242,6 +2242,36 @@
   <si>
     <t>TV설치 사진 없음 - 다른곳에 할예정이라고 말만 남겨져있음 - 전정현</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치환경 미흡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강정란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환후 어떤게설치고 어떤게 회수인지모름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이오찬</t>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>민인식</t>
+  </si>
+  <si>
+    <t>김상원</t>
+  </si>
+  <si>
+    <t>이동규</t>
   </si>
 </sst>
 </file>
@@ -5139,7 +5169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
@@ -6749,8 +6779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7588,59 +7618,131 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="A46" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D46" s="2">
+        <v>202044</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C47" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D47" s="2">
+        <v>205244</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C48" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D48" s="2">
+        <v>205201</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C49" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D49" s="2">
+        <v>205310</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C50" s="15">
+        <v>43827</v>
+      </c>
+      <c r="D50" s="2">
+        <v>205320</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="A51" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C51" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D51" s="2">
+        <v>205585</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C52" s="15">
+        <v>43827</v>
+      </c>
+      <c r="D52" s="2">
+        <v>205695</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="583">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2272,6 +2272,9 @@
   </si>
   <si>
     <t>이동규</t>
+  </si>
+  <si>
+    <t>김천수</t>
   </si>
 </sst>
 </file>
@@ -6779,8 +6782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7746,11 +7749,21 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="A53" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C53" s="15">
+        <v>43829</v>
+      </c>
+      <c r="D53" s="2">
+        <v>204857</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="585">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2275,6 +2275,12 @@
   </si>
   <si>
     <t>김천수</t>
+  </si>
+  <si>
+    <t>lakmal</t>
+  </si>
+  <si>
+    <t>윤호식</t>
   </si>
 </sst>
 </file>
@@ -6780,10 +6786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7767,19 +7773,39 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C54" s="15">
+        <v>43830</v>
+      </c>
+      <c r="D54" s="2">
+        <v>206444</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="A55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C55" s="15">
+        <v>43831</v>
+      </c>
+      <c r="D55" s="2">
+        <v>206439</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7885,6 +7911,214 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9631B20-EF7B-4C9A-9470-9B98248B34DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="3510" yWindow="2250" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="594">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2281,12 +2282,47 @@
   </si>
   <si>
     <t>윤호식</t>
+  </si>
+  <si>
+    <t>메모 기재 미흡.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 제품이 회수되고, 설치 되었는지 기재되어 있지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 모서리 부분 짤림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65PUN6703</t>
+  </si>
+  <si>
+    <t>신현진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박송희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2565,6 +2601,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2600,6 +2653,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2775,7 +2845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5175,7 +5245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6785,10 +6855,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -8128,11 +8198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9171,6 +9241,66 @@
       </c>
       <c r="G52" s="1"/>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53" s="14">
+        <v>43836</v>
+      </c>
+      <c r="D53" s="10">
+        <v>201942</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C54" s="14">
+        <v>43832</v>
+      </c>
+      <c r="D54" s="10">
+        <v>206042</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C55" s="14">
+        <v>43833</v>
+      </c>
+      <c r="D55" s="10">
+        <v>206872</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9179,7 +9309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9735,11 +9865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10248,28 +10378,64 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43837</v>
+      </c>
+      <c r="D27" s="2">
+        <v>167973</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43836</v>
+      </c>
+      <c r="D28" s="2">
+        <v>206354</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43836</v>
+      </c>
+      <c r="D29" s="2">
+        <v>207461</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -10447,7 +10613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10884,7 +11050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="589">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2281,6 +2281,20 @@
   </si>
   <si>
     <t>윤호식</t>
+  </si>
+  <si>
+    <t>길순이</t>
+  </si>
+  <si>
+    <t>강상훈</t>
+  </si>
+  <si>
+    <t>리퍼품 오설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리퍼6233을 6784박스에있다고 오설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6789,7 +6803,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7809,20 +7823,42 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C56" s="15">
+        <v>43836</v>
+      </c>
+      <c r="D56" s="2">
+        <v>206748</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C57" s="15">
+        <v>43836</v>
+      </c>
+      <c r="D57" s="2">
+        <v>206980</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>

--- a/울산, 수원 처리불량건.xlsx
+++ b/울산, 수원 처리불량건.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\jungdong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6A955E-4FD4-4749-BCCF-BBD037F2D870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2385" windowWidth="20820" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 울산" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="598">
   <si>
     <t>모   델</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2294,13 +2295,48 @@
   </si>
   <si>
     <t>리퍼6233을 6784박스에있다고 오설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모 기재 미흡.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 제품이 회수되고, 설치 되었는지 기재되어 있지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 모서리 부분 짤림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65PUN6703</t>
+  </si>
+  <si>
+    <t>신현진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박송희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2413,7 +2449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2485,6 +2521,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2579,6 +2624,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2614,6 +2676,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2789,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5189,7 +5268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6799,10 +6878,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -8164,11 +8243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A53" sqref="A53:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9207,6 +9286,66 @@
       </c>
       <c r="G52" s="1"/>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53" s="14">
+        <v>43836</v>
+      </c>
+      <c r="D53" s="26">
+        <v>201942</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C54" s="14">
+        <v>43832</v>
+      </c>
+      <c r="D54" s="26">
+        <v>206042</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="C55" s="14">
+        <v>43833</v>
+      </c>
+      <c r="D55" s="26">
+        <v>206872</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9215,7 +9354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9771,11 +9910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10284,28 +10423,64 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43837</v>
+      </c>
+      <c r="D27" s="2">
+        <v>167973</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43836</v>
+      </c>
+      <c r="D28" s="2">
+        <v>206354</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43836</v>
+      </c>
+      <c r="D29" s="2">
+        <v>207461</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -10483,7 +10658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10920,7 +11095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
